--- a/RESULTADOS/resultados.xlsx
+++ b/RESULTADOS/resultados.xlsx
@@ -470,7 +470,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.276877688455756E-161</v>
+        <v>1.352051363526036E-161</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -478,7 +478,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2">
